--- a/notes/notes - doors quote generator.xlsx
+++ b/notes/notes - doors quote generator.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AApps\door-quote-automator\notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="3" r:id="rId2"/>
-    <sheet name="Door quote vs plugin" sheetId="4" r:id="rId3"/>
+    <sheet name="Catefories" sheetId="5" r:id="rId3"/>
+    <sheet name="Door quote vs plugin" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>v 0.1</t>
   </si>
@@ -215,11 +221,50 @@
   <si>
     <t>A branding header with MEK Logo and Contact number</t>
   </si>
+  <si>
+    <t>Single Door Options</t>
+  </si>
+  <si>
+    <t>Glass - 02 options</t>
+  </si>
+  <si>
+    <t>Double Door</t>
+  </si>
+  <si>
+    <t>Height, input box</t>
+  </si>
+  <si>
+    <t>Width, input box</t>
+  </si>
+  <si>
+    <t>door closer</t>
+  </si>
+  <si>
+    <t>louver required</t>
+  </si>
+  <si>
+    <t>Door Type(Fire Rating)</t>
+  </si>
+  <si>
+    <t>lock type (panic bar)</t>
+  </si>
+  <si>
+    <t>lock type (panic Bar)</t>
+  </si>
+  <si>
+    <t>Mustaqim Extra Large Doors</t>
+  </si>
+  <si>
+    <t>China Customised Doors</t>
+  </si>
+  <si>
+    <t>Client Doors Not Covered</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -395,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -458,16 +503,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +533,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -972,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -989,31 +1035,31 @@
       <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="45" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -1024,13 +1070,13 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="I4" t="s">
         <v>46</v>
       </c>
@@ -1058,68 +1104,68 @@
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="I6" s="43" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="I6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="I7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="I8" s="50" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="I8" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -1130,11 +1176,11 @@
       <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -1143,11 +1189,11 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -1158,19 +1204,19 @@
       <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="45" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="37"/>
@@ -1183,32 +1229,32 @@
       <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="I13" s="49" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="I14" t="s">
         <v>51</v>
       </c>
@@ -1217,13 +1263,13 @@
       <c r="B15" s="16">
         <v>3</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="I15" t="s">
         <v>52</v>
       </c>
@@ -1232,11 +1278,11 @@
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="I16" s="37" t="s">
         <v>53</v>
       </c>
@@ -1245,11 +1291,11 @@
       <c r="B17" s="16">
         <v>5</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="I17" t="s">
         <v>54</v>
       </c>
@@ -1258,11 +1304,11 @@
       <c r="B18" s="20">
         <v>6</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="I18" t="s">
         <v>55</v>
       </c>
@@ -1271,33 +1317,33 @@
       <c r="B19" s="16">
         <v>7</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="I19" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="I20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
       <c r="I21" t="s">
         <v>58</v>
       </c>
@@ -1319,6 +1365,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1327,23 +1390,6 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1351,6 +1397,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1371,15 +1511,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -1497,20 +1637,20 @@
       <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>

--- a/notes/notes - doors quote generator.xlsx
+++ b/notes/notes - doors quote generator.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AApps\door-quote-automator\notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -161,110 +156,111 @@
     <t>Y move to make product in a new domain before you even know the old one well enough</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ideal quote builder: https://www.cdfdistributors.com/quote-builder/</t>
+  </si>
+  <si>
+    <t>quote builder on the left, combined specs on the right</t>
+  </si>
+  <si>
+    <t>wordpress, jhoomla and drupal are among the most popular CMS systems</t>
+  </si>
+  <si>
+    <t>quote options in single or double columns</t>
+  </si>
+  <si>
+    <t>MVP:</t>
+  </si>
+  <si>
+    <t>select door, single or double</t>
+  </si>
+  <si>
+    <t>select door size</t>
+  </si>
+  <si>
+    <t>select panic bar lock required</t>
+  </si>
+  <si>
+    <t>select viewing glass options</t>
+  </si>
+  <si>
+    <t>select louver options</t>
+  </si>
+  <si>
+    <t>door closer required</t>
+  </si>
+  <si>
+    <t>give company contact details and email address</t>
+  </si>
+  <si>
+    <t>check quote in your email</t>
+  </si>
+  <si>
+    <t>get manufacturing drawing from the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORTANT: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A branding header with MEK Logo and Contact number</t>
+  </si>
+  <si>
+    <t>Single Door Options</t>
+  </si>
+  <si>
+    <t>Glass - 02 options</t>
+  </si>
+  <si>
+    <t>Double Door</t>
+  </si>
+  <si>
+    <t>Height, input box</t>
+  </si>
+  <si>
+    <t>Width, input box</t>
+  </si>
+  <si>
+    <t>door closer</t>
+  </si>
+  <si>
+    <t>louver required</t>
+  </si>
+  <si>
+    <t>Door Type(Fire Rating)</t>
+  </si>
+  <si>
+    <t>lock type (panic bar)</t>
+  </si>
+  <si>
+    <t>lock type (panic Bar)</t>
+  </si>
+  <si>
+    <t>Mustaqim Extra Large Doors</t>
+  </si>
+  <si>
+    <t>China Customised Doors</t>
+  </si>
+  <si>
+    <t>Client Doors Not Covered</t>
+  </si>
+  <si>
     <t>Q: Which project do you want to do first???
 Ans: For my short term and long term, although my developer rating is 1/100, but for a saas product business, lifestyle and future, need to get started with developing, marketing and monetizing saas products, will be better prepared to launch the next saas product, need to figure out how to create a useful saas product and make money through it
 Ans 2: For a competent developer, making a chrome plugin will not be a big deal after making something like the door quote automator, next step in the staicase is to up your skills, then can work on any idea you want, so level up skills by building the door quote automator.
 Ans 3: Any major decision will only be taken if tech is making $4000/month, this will require major upgradation of skills and will be a long journey, every project should be of such a high quality that it can also be showcased, even if you want to launch a saas product. Prudence demands that I am through in every project and focus on upgradation of skills, individual projects do not take more than 3-4 months, main objective should be constant improvement in skills and portfolio.
-Ans 4: As I want to earn through my code, after having discussed it with dad, shall build a door quote builder and then market to businesses.</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>ideal quote builder: https://www.cdfdistributors.com/quote-builder/</t>
-  </si>
-  <si>
-    <t>quote builder on the left, combined specs on the right</t>
-  </si>
-  <si>
-    <t>wordpress, jhoomla and drupal are among the most popular CMS systems</t>
-  </si>
-  <si>
-    <t>quote options in single or double columns</t>
-  </si>
-  <si>
-    <t>MVP:</t>
-  </si>
-  <si>
-    <t>select door, single or double</t>
-  </si>
-  <si>
-    <t>select door size</t>
-  </si>
-  <si>
-    <t>select panic bar lock required</t>
-  </si>
-  <si>
-    <t>select viewing glass options</t>
-  </si>
-  <si>
-    <t>select louver options</t>
-  </si>
-  <si>
-    <t>door closer required</t>
-  </si>
-  <si>
-    <t>give company contact details and email address</t>
-  </si>
-  <si>
-    <t>check quote in your email</t>
-  </si>
-  <si>
-    <t>get manufacturing drawing from the dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPORTANT: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>A branding header with MEK Logo and Contact number</t>
-  </si>
-  <si>
-    <t>Single Door Options</t>
-  </si>
-  <si>
-    <t>Glass - 02 options</t>
-  </si>
-  <si>
-    <t>Double Door</t>
-  </si>
-  <si>
-    <t>Height, input box</t>
-  </si>
-  <si>
-    <t>Width, input box</t>
-  </si>
-  <si>
-    <t>door closer</t>
-  </si>
-  <si>
-    <t>louver required</t>
-  </si>
-  <si>
-    <t>Door Type(Fire Rating)</t>
-  </si>
-  <si>
-    <t>lock type (panic bar)</t>
-  </si>
-  <si>
-    <t>lock type (panic Bar)</t>
-  </si>
-  <si>
-    <t>Mustaqim Extra Large Doors</t>
-  </si>
-  <si>
-    <t>China Customised Doors</t>
-  </si>
-  <si>
-    <t>Client Doors Not Covered</t>
+Ans 4: As I want to earn through my code, after having discussed it with dad, shall build a door quote builder and then market to businesses.
+Ans 5: Severe loss of motivation experienced after 20% application completed, water the garden around you in your life, even if the task it small, do it really well</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -504,20 +500,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1035,137 +1031,137 @@
       <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="I5" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="I6" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="I7" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="I7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="I8" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="I8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -1176,11 +1172,11 @@
       <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -1189,11 +1185,11 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -1204,19 +1200,19 @@
       <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="44" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="37"/>
@@ -1229,154 +1225,142 @@
       <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="I13" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>2</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>3</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="I16" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>5</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>7</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="I19" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C1:G1"/>
@@ -1390,6 +1374,18 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1400,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1412,77 +1408,77 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1638,7 +1634,7 @@
     </row>
     <row r="11" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
